--- a/SOO_results/DP1000_room_Swift_NDBR50_curve2/iteration/14/FD_Curve.xlsx
+++ b/SOO_results/DP1000_room_Swift_NDBR50_curve2/iteration/14/FD_Curve.xlsx
@@ -488,1077 +488,1077 @@
         <v>0.0899964</v>
       </c>
       <c r="B5" t="n">
-        <v>3.31913</v>
+        <v>3.17591</v>
       </c>
       <c r="C5" t="n">
-        <v>3319.13</v>
+        <v>3175.91</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>0.120005</v>
+        <v>0.119974</v>
       </c>
       <c r="B6" t="n">
-        <v>4.25806</v>
+        <v>3.51748</v>
       </c>
       <c r="C6" t="n">
-        <v>4258.06</v>
+        <v>3517.48</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>0.150013</v>
+        <v>0.149956</v>
       </c>
       <c r="B7" t="n">
-        <v>5.01677</v>
+        <v>3.79903</v>
       </c>
       <c r="C7" t="n">
-        <v>5016.77</v>
+        <v>3799.03</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>0.179965</v>
+        <v>0.179908</v>
       </c>
       <c r="B8" t="n">
-        <v>5.479850000000001</v>
+        <v>3.95998</v>
       </c>
       <c r="C8" t="n">
-        <v>5479.85</v>
+        <v>3959.98</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>0.209917</v>
+        <v>0.20986</v>
       </c>
       <c r="B9" t="n">
-        <v>5.83458</v>
+        <v>4.07965</v>
       </c>
       <c r="C9" t="n">
-        <v>5834.58</v>
+        <v>4079.65</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>0.23987</v>
+        <v>0.239813</v>
       </c>
       <c r="B10" t="n">
-        <v>6.127520000000001</v>
+        <v>4.170439999999999</v>
       </c>
       <c r="C10" t="n">
-        <v>6127.52</v>
+        <v>4170.44</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>0.269787</v>
+        <v>0.269799</v>
       </c>
       <c r="B11" t="n">
-        <v>6.34935</v>
+        <v>4.24911</v>
       </c>
       <c r="C11" t="n">
-        <v>6349.35</v>
+        <v>4249.11</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>0.299688</v>
+        <v>0.299803</v>
       </c>
       <c r="B12" t="n">
-        <v>6.53815</v>
+        <v>4.31053</v>
       </c>
       <c r="C12" t="n">
-        <v>6538.15</v>
+        <v>4310.53</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>0.329585</v>
+        <v>0.329806</v>
       </c>
       <c r="B13" t="n">
-        <v>6.6877</v>
+        <v>4.358989999999999</v>
       </c>
       <c r="C13" t="n">
-        <v>6687.7</v>
+        <v>4358.99</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>0.359486</v>
+        <v>0.35981</v>
       </c>
       <c r="B14" t="n">
-        <v>6.81795</v>
+        <v>4.40432</v>
       </c>
       <c r="C14" t="n">
-        <v>6817.95</v>
+        <v>4404.32</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>0.389387</v>
+        <v>0.389729</v>
       </c>
       <c r="B15" t="n">
-        <v>6.93106</v>
+        <v>4.44494</v>
       </c>
       <c r="C15" t="n">
-        <v>6931.06</v>
+        <v>4444.94</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>0.419288</v>
+        <v>0.41963</v>
       </c>
       <c r="B16" t="n">
-        <v>7.02578</v>
+        <v>4.48176</v>
       </c>
       <c r="C16" t="n">
-        <v>7025.78</v>
+        <v>4481.76</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>0.449189</v>
+        <v>0.449531</v>
       </c>
       <c r="B17" t="n">
-        <v>7.12646</v>
+        <v>4.51446</v>
       </c>
       <c r="C17" t="n">
-        <v>7126.46</v>
+        <v>4514.46</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>0.47909</v>
+        <v>0.479432</v>
       </c>
       <c r="B18" t="n">
-        <v>7.202310000000001</v>
+        <v>4.54115</v>
       </c>
       <c r="C18" t="n">
-        <v>7202.31</v>
+        <v>4541.15</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>0.508991</v>
+        <v>0.509333</v>
       </c>
       <c r="B19" t="n">
-        <v>7.2792</v>
+        <v>4.56662</v>
       </c>
       <c r="C19" t="n">
-        <v>7279.2</v>
+        <v>4566.62</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>0.538892</v>
+        <v>0.539234</v>
       </c>
       <c r="B20" t="n">
-        <v>7.353680000000001</v>
+        <v>4.59158</v>
       </c>
       <c r="C20" t="n">
-        <v>7353.68</v>
+        <v>4591.58</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>0.568793</v>
+        <v>0.5691349999999999</v>
       </c>
       <c r="B21" t="n">
-        <v>7.41662</v>
+        <v>4.6113</v>
       </c>
       <c r="C21" t="n">
-        <v>7416.62</v>
+        <v>4611.3</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>0.598807</v>
+        <v>0.599149</v>
       </c>
       <c r="B22" t="n">
-        <v>7.474100000000001</v>
+        <v>4.63222</v>
       </c>
       <c r="C22" t="n">
-        <v>7474.1</v>
+        <v>4632.22</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>0.628948</v>
+        <v>0.62929</v>
       </c>
       <c r="B23" t="n">
-        <v>7.52864</v>
+        <v>4.64906</v>
       </c>
       <c r="C23" t="n">
-        <v>7528.64</v>
+        <v>4649.06</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>0.659092</v>
+        <v>0.659434</v>
       </c>
       <c r="B24" t="n">
-        <v>7.58024</v>
+        <v>4.66626</v>
       </c>
       <c r="C24" t="n">
-        <v>7580.24</v>
+        <v>4666.26</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>0.689233</v>
+        <v>0.689575</v>
       </c>
       <c r="B25" t="n">
-        <v>7.62936</v>
+        <v>4.68099</v>
       </c>
       <c r="C25" t="n">
-        <v>7629.36</v>
+        <v>4680.99</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>0.719373</v>
+        <v>0.719719</v>
       </c>
       <c r="B26" t="n">
-        <v>7.676060000000001</v>
+        <v>4.69442</v>
       </c>
       <c r="C26" t="n">
-        <v>7676.06</v>
+        <v>4694.42</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>0.749518</v>
+        <v>0.74986</v>
       </c>
       <c r="B27" t="n">
-        <v>7.72</v>
+        <v>4.70751</v>
       </c>
       <c r="C27" t="n">
-        <v>7720</v>
+        <v>4707.51</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>0.779658</v>
+        <v>0.78</v>
       </c>
       <c r="B28" t="n">
-        <v>7.760260000000001</v>
+        <v>4.71896</v>
       </c>
       <c r="C28" t="n">
-        <v>7760.26</v>
+        <v>4718.96</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>0.8098030000000001</v>
+        <v>0.810145</v>
       </c>
       <c r="B29" t="n">
-        <v>7.796310000000001</v>
+        <v>4.72926</v>
       </c>
       <c r="C29" t="n">
-        <v>7796.31</v>
+        <v>4729.26</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>0.839943</v>
+        <v>0.8402849999999999</v>
       </c>
       <c r="B30" t="n">
-        <v>7.83074</v>
+        <v>4.73895</v>
       </c>
       <c r="C30" t="n">
-        <v>7830.74</v>
+        <v>4738.95</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>0.8700830000000001</v>
+        <v>0.870425</v>
       </c>
       <c r="B31" t="n">
-        <v>7.8662</v>
+        <v>4.74782</v>
       </c>
       <c r="C31" t="n">
-        <v>7866.2</v>
+        <v>4747.82</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>0.900228</v>
+        <v>0.90057</v>
       </c>
       <c r="B32" t="n">
-        <v>7.89861</v>
+        <v>4.75573</v>
       </c>
       <c r="C32" t="n">
-        <v>7898.61</v>
+        <v>4755.73</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>0.930369</v>
+        <v>0.930711</v>
       </c>
       <c r="B33" t="n">
-        <v>7.92661</v>
+        <v>4.762770000000001</v>
       </c>
       <c r="C33" t="n">
-        <v>7926.61</v>
+        <v>4762.77</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>0.9605089999999999</v>
+        <v>0.960851</v>
       </c>
       <c r="B34" t="n">
-        <v>7.95664</v>
+        <v>4.76907</v>
       </c>
       <c r="C34" t="n">
-        <v>7956.64</v>
+        <v>4769.07</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>0.990654</v>
+        <v>0.990996</v>
       </c>
       <c r="B35" t="n">
-        <v>7.98317</v>
+        <v>4.77471</v>
       </c>
       <c r="C35" t="n">
-        <v>7983.17</v>
+        <v>4774.71</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>1.02079</v>
+        <v>1.02114</v>
       </c>
       <c r="B36" t="n">
-        <v>8.008240000000001</v>
+        <v>4.7797</v>
       </c>
       <c r="C36" t="n">
-        <v>8008.24</v>
+        <v>4779.7</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>1.05093</v>
+        <v>1.05128</v>
       </c>
       <c r="B37" t="n">
-        <v>8.03331</v>
+        <v>4.78403</v>
       </c>
       <c r="C37" t="n">
-        <v>8033.31</v>
+        <v>4784.03</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>1.08108</v>
+        <v>1.08142</v>
       </c>
       <c r="B38" t="n">
-        <v>8.055340000000001</v>
+        <v>4.78773</v>
       </c>
       <c r="C38" t="n">
-        <v>8055.34</v>
+        <v>4787.73</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>1.11122</v>
+        <v>1.11156</v>
       </c>
       <c r="B39" t="n">
-        <v>8.077909999999999</v>
+        <v>4.79077</v>
       </c>
       <c r="C39" t="n">
-        <v>8077.91</v>
+        <v>4790.77</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>1.14136</v>
+        <v>1.14171</v>
       </c>
       <c r="B40" t="n">
-        <v>8.097800000000001</v>
+        <v>4.7932</v>
       </c>
       <c r="C40" t="n">
-        <v>8097.8</v>
+        <v>4793.2</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>1.1715</v>
+        <v>1.17145</v>
       </c>
       <c r="B41" t="n">
-        <v>8.11777</v>
+        <v>4.795050000000001</v>
       </c>
       <c r="C41" t="n">
-        <v>8117.77</v>
+        <v>4795.05</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>1.20164</v>
+        <v>1.20118</v>
       </c>
       <c r="B42" t="n">
-        <v>8.13603</v>
+        <v>4.79631</v>
       </c>
       <c r="C42" t="n">
-        <v>8136.03</v>
+        <v>4796.31</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>1.23179</v>
+        <v>1.23091</v>
       </c>
       <c r="B43" t="n">
-        <v>8.153229999999999</v>
+        <v>4.79696</v>
       </c>
       <c r="C43" t="n">
-        <v>8153.23</v>
+        <v>4796.96</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>1.26193</v>
+        <v>1.26064</v>
       </c>
       <c r="B44" t="n">
-        <v>8.17029</v>
+        <v>4.79696</v>
       </c>
       <c r="C44" t="n">
-        <v>8170.29</v>
+        <v>4796.96</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>1.29207</v>
+        <v>1.29037</v>
       </c>
       <c r="B45" t="n">
-        <v>8.18539</v>
+        <v>4.79643</v>
       </c>
       <c r="C45" t="n">
-        <v>8185.39</v>
+        <v>4796.43</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>1.32221</v>
+        <v>1.3201</v>
       </c>
       <c r="B46" t="n">
-        <v>8.20026</v>
+        <v>4.79533</v>
       </c>
       <c r="C46" t="n">
-        <v>8200.26</v>
+        <v>4795.33</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>1.35236</v>
+        <v>1.34983</v>
       </c>
       <c r="B47" t="n">
-        <v>8.21434</v>
+        <v>4.79372</v>
       </c>
       <c r="C47" t="n">
-        <v>8214.34</v>
+        <v>4793.72</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>1.3825</v>
+        <v>1.37956</v>
       </c>
       <c r="B48" t="n">
-        <v>8.22705</v>
+        <v>4.79153</v>
       </c>
       <c r="C48" t="n">
-        <v>8227.049999999999</v>
+        <v>4791.53</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>1.41264</v>
+        <v>1.40929</v>
       </c>
       <c r="B49" t="n">
-        <v>8.239330000000001</v>
+        <v>4.78884</v>
       </c>
       <c r="C49" t="n">
-        <v>8239.33</v>
+        <v>4788.84</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>1.44278</v>
+        <v>1.43901</v>
       </c>
       <c r="B50" t="n">
-        <v>8.251049999999999</v>
+        <v>4.78559</v>
       </c>
       <c r="C50" t="n">
-        <v>8251.049999999999</v>
+        <v>4785.59</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>1.47293</v>
+        <v>1.46874</v>
       </c>
       <c r="B51" t="n">
-        <v>8.261649999999999</v>
+        <v>4.78182</v>
       </c>
       <c r="C51" t="n">
-        <v>8261.65</v>
+        <v>4781.82</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>1.50307</v>
+        <v>1.49847</v>
       </c>
       <c r="B52" t="n">
-        <v>8.271469999999999</v>
+        <v>4.777520000000001</v>
       </c>
       <c r="C52" t="n">
-        <v>8271.469999999999</v>
+        <v>4777.52</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>1.533</v>
+        <v>1.5282</v>
       </c>
       <c r="B53" t="n">
-        <v>8.280760000000001</v>
+        <v>4.772699999999999</v>
       </c>
       <c r="C53" t="n">
-        <v>8280.76</v>
+        <v>4772.7</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>1.56274</v>
+        <v>1.55821</v>
       </c>
       <c r="B54" t="n">
-        <v>8.28942</v>
+        <v>4.76722</v>
       </c>
       <c r="C54" t="n">
-        <v>8289.42</v>
+        <v>4767.22</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>1.59246</v>
+        <v>1.5885</v>
       </c>
       <c r="B55" t="n">
-        <v>8.29726</v>
+        <v>4.76107</v>
       </c>
       <c r="C55" t="n">
-        <v>8297.26</v>
+        <v>4761.07</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>1.62219</v>
+        <v>1.61879</v>
       </c>
       <c r="B56" t="n">
-        <v>8.30433</v>
+        <v>4.754</v>
       </c>
       <c r="C56" t="n">
-        <v>8304.33</v>
+        <v>4754</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>1.65192</v>
+        <v>1.64909</v>
       </c>
       <c r="B57" t="n">
-        <v>8.31077</v>
+        <v>4.7462</v>
       </c>
       <c r="C57" t="n">
-        <v>8310.77</v>
+        <v>4746.2</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
-        <v>1.68165</v>
+        <v>1.67938</v>
       </c>
       <c r="B58" t="n">
-        <v>8.31662</v>
+        <v>4.73793</v>
       </c>
       <c r="C58" t="n">
-        <v>8316.620000000001</v>
+        <v>4737.93</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
-        <v>1.71138</v>
+        <v>1.70967</v>
       </c>
       <c r="B59" t="n">
-        <v>8.32184</v>
+        <v>4.72906</v>
       </c>
       <c r="C59" t="n">
-        <v>8321.84</v>
+        <v>4729.06</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
-        <v>1.74128</v>
+        <v>1.73997</v>
       </c>
       <c r="B60" t="n">
-        <v>8.326469999999999</v>
+        <v>4.71957</v>
       </c>
       <c r="C60" t="n">
-        <v>8326.469999999999</v>
+        <v>4719.57</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="n">
-        <v>1.77157</v>
+        <v>1.77026</v>
       </c>
       <c r="B61" t="n">
-        <v>8.330530000000001</v>
+        <v>4.70944</v>
       </c>
       <c r="C61" t="n">
-        <v>8330.530000000001</v>
+        <v>4709.44</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="n">
-        <v>1.80187</v>
+        <v>1.80055</v>
       </c>
       <c r="B62" t="n">
-        <v>8.333870000000001</v>
+        <v>4.69862</v>
       </c>
       <c r="C62" t="n">
-        <v>8333.870000000001</v>
+        <v>4698.62</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="n">
-        <v>1.83216</v>
+        <v>1.83084</v>
       </c>
       <c r="B63" t="n">
-        <v>8.336540000000001</v>
+        <v>4.68708</v>
       </c>
       <c r="C63" t="n">
-        <v>8336.540000000001</v>
+        <v>4687.08</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="n">
-        <v>1.86245</v>
+        <v>1.86114</v>
       </c>
       <c r="B64" t="n">
-        <v>8.338540000000002</v>
+        <v>4.674810000000001</v>
       </c>
       <c r="C64" t="n">
-        <v>8338.540000000001</v>
+        <v>4674.81</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="n">
-        <v>1.89275</v>
+        <v>1.89143</v>
       </c>
       <c r="B65" t="n">
-        <v>8.339879999999999</v>
+        <v>4.66162</v>
       </c>
       <c r="C65" t="n">
-        <v>8339.879999999999</v>
+        <v>4661.62</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="n">
-        <v>1.92273</v>
+        <v>1.92172</v>
       </c>
       <c r="B66" t="n">
-        <v>8.340549999999999</v>
+        <v>4.64752</v>
       </c>
       <c r="C66" t="n">
-        <v>8340.549999999999</v>
+        <v>4647.52</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="n">
-        <v>1.95259</v>
+        <v>1.95202</v>
       </c>
       <c r="B67" t="n">
-        <v>8.34056</v>
+        <v>4.63249</v>
       </c>
       <c r="C67" t="n">
-        <v>8340.559999999999</v>
+        <v>4632.49</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="n">
-        <v>1.98246</v>
+        <v>1.98231</v>
       </c>
       <c r="B68" t="n">
-        <v>8.33985</v>
+        <v>4.6166</v>
       </c>
       <c r="C68" t="n">
-        <v>8339.85</v>
+        <v>4616.6</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="n">
-        <v>2.01233</v>
+        <v>2.01258</v>
       </c>
       <c r="B69" t="n">
-        <v>8.33835</v>
+        <v>4.599810000000001</v>
       </c>
       <c r="C69" t="n">
-        <v>8338.35</v>
+        <v>4599.81</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="n">
-        <v>2.04219</v>
+        <v>2.04245</v>
       </c>
       <c r="B70" t="n">
-        <v>8.33609</v>
+        <v>4.582020000000001</v>
       </c>
       <c r="C70" t="n">
-        <v>8336.09</v>
+        <v>4582.02</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="n">
-        <v>2.07206</v>
+        <v>2.07232</v>
       </c>
       <c r="B71" t="n">
-        <v>8.33319</v>
+        <v>4.56333</v>
       </c>
       <c r="C71" t="n">
-        <v>8333.190000000001</v>
+        <v>4563.33</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="n">
-        <v>2.10193</v>
+        <v>2.10218</v>
       </c>
       <c r="B72" t="n">
-        <v>8.329540000000001</v>
+        <v>4.54357</v>
       </c>
       <c r="C72" t="n">
-        <v>8329.540000000001</v>
+        <v>4543.57</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="n">
-        <v>2.1318</v>
+        <v>2.13205</v>
       </c>
       <c r="B73" t="n">
-        <v>8.32518</v>
+        <v>4.522699999999999</v>
       </c>
       <c r="C73" t="n">
-        <v>8325.18</v>
+        <v>4522.7</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="n">
-        <v>2.16166</v>
+        <v>2.16192</v>
       </c>
       <c r="B74" t="n">
-        <v>8.320180000000001</v>
+        <v>4.50075</v>
       </c>
       <c r="C74" t="n">
-        <v>8320.18</v>
+        <v>4500.75</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="n">
-        <v>2.19153</v>
+        <v>2.19178</v>
       </c>
       <c r="B75" t="n">
-        <v>8.31439</v>
+        <v>4.4777</v>
       </c>
       <c r="C75" t="n">
-        <v>8314.389999999999</v>
+        <v>4477.7</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="n">
-        <v>2.2214</v>
+        <v>2.22165</v>
       </c>
       <c r="B76" t="n">
-        <v>8.30794</v>
+        <v>4.45375</v>
       </c>
       <c r="C76" t="n">
-        <v>8307.940000000001</v>
+        <v>4453.75</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="n">
-        <v>2.25126</v>
+        <v>2.25177</v>
       </c>
       <c r="B77" t="n">
-        <v>8.300690000000001</v>
+        <v>4.42809</v>
       </c>
       <c r="C77" t="n">
-        <v>8300.690000000001</v>
+        <v>4428.09</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="n">
-        <v>2.28113</v>
+        <v>2.28168</v>
       </c>
       <c r="B78" t="n">
-        <v>8.29274</v>
+        <v>4.40161</v>
       </c>
       <c r="C78" t="n">
-        <v>8292.74</v>
+        <v>4401.61</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="n">
-        <v>2.311</v>
+        <v>2.3118</v>
       </c>
       <c r="B79" t="n">
-        <v>8.284040000000001</v>
+        <v>4.37342</v>
       </c>
       <c r="C79" t="n">
-        <v>8284.040000000001</v>
+        <v>4373.42</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="n">
-        <v>2.34086</v>
+        <v>2.34155</v>
       </c>
       <c r="B80" t="n">
-        <v>8.274540000000002</v>
+        <v>4.34436</v>
       </c>
       <c r="C80" t="n">
-        <v>8274.540000000001</v>
+        <v>4344.36</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="n">
-        <v>2.37073</v>
+        <v>2.37103</v>
       </c>
       <c r="B81" t="n">
-        <v>8.264280000000001</v>
+        <v>4.314319999999999</v>
       </c>
       <c r="C81" t="n">
-        <v>8264.280000000001</v>
+        <v>4314.32</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="n">
-        <v>2.40059</v>
+        <v>2.40172</v>
       </c>
       <c r="B82" t="n">
-        <v>8.2531</v>
+        <v>4.281359999999999</v>
       </c>
       <c r="C82" t="n">
-        <v>8253.1</v>
+        <v>4281.36</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="n">
-        <v>2.43046</v>
+        <v>2.43188</v>
       </c>
       <c r="B83" t="n">
-        <v>8.240690000000001</v>
+        <v>4.24775</v>
       </c>
       <c r="C83" t="n">
-        <v>8240.690000000001</v>
+        <v>4247.75</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="n">
-        <v>2.45951</v>
+        <v>2.46141</v>
       </c>
       <c r="B84" t="n">
-        <v>8.22728</v>
+        <v>4.21351</v>
       </c>
       <c r="C84" t="n">
-        <v>8227.280000000001</v>
+        <v>4213.51</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="n">
-        <v>2.48852</v>
+        <v>2.49143</v>
       </c>
       <c r="B85" t="n">
-        <v>8.213040000000001</v>
+        <v>4.17694</v>
       </c>
       <c r="C85" t="n">
-        <v>8213.040000000001</v>
+        <v>4176.94</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="n">
-        <v>2.51754</v>
+        <v>2.52198</v>
       </c>
       <c r="B86" t="n">
-        <v>8.197950000000001</v>
+        <v>4.13851</v>
       </c>
       <c r="C86" t="n">
-        <v>8197.950000000001</v>
+        <v>4138.51</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="n">
-        <v>2.54655</v>
+        <v>2.55185</v>
       </c>
       <c r="B87" t="n">
-        <v>8.18192</v>
+        <v>4.09953</v>
       </c>
       <c r="C87" t="n">
-        <v>8181.92</v>
+        <v>4099.53</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="n">
-        <v>2.57556</v>
+        <v>2.5809</v>
       </c>
       <c r="B88" t="n">
-        <v>8.164910000000001</v>
+        <v>4.06004</v>
       </c>
       <c r="C88" t="n">
-        <v>8164.91</v>
+        <v>4060.04</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="n">
-        <v>2.60457</v>
+        <v>2.61177</v>
       </c>
       <c r="B89" t="n">
-        <v>8.146879999999999</v>
+        <v>4.01707</v>
       </c>
       <c r="C89" t="n">
-        <v>8146.88</v>
+        <v>4017.07</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="n">
-        <v>2.63359</v>
+        <v>2.64203</v>
       </c>
       <c r="B90" t="n">
-        <v>8.127739999999999</v>
+        <v>3.97333</v>
       </c>
       <c r="C90" t="n">
-        <v>8127.74</v>
+        <v>3973.33</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="n">
-        <v>2.6626</v>
+        <v>2.67168</v>
       </c>
       <c r="B91" t="n">
-        <v>8.10718</v>
+        <v>3.92945</v>
       </c>
       <c r="C91" t="n">
-        <v>8107.18</v>
+        <v>3929.45</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="n">
-        <v>2.69162</v>
+        <v>2.70077</v>
       </c>
       <c r="B92" t="n">
-        <v>8.085290000000001</v>
+        <v>3.8855</v>
       </c>
       <c r="C92" t="n">
-        <v>8085.29</v>
+        <v>3885.5</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="n">
-        <v>2.72063</v>
+        <v>2.73166</v>
       </c>
       <c r="B93" t="n">
-        <v>8.061970000000001</v>
+        <v>3.83749</v>
       </c>
       <c r="C93" t="n">
-        <v>8061.97</v>
+        <v>3837.49</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="n">
-        <v>2.74964</v>
+        <v>2.76231</v>
       </c>
       <c r="B94" t="n">
-        <v>8.03721</v>
+        <v>3.78951</v>
       </c>
       <c r="C94" t="n">
-        <v>8037.21</v>
+        <v>3789.51</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="n">
-        <v>2.77866</v>
+        <v>2.79175</v>
       </c>
       <c r="B95" t="n">
-        <v>8.01102</v>
+        <v>3.74181</v>
       </c>
       <c r="C95" t="n">
-        <v>8011.02</v>
+        <v>3741.81</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="n">
-        <v>2.80767</v>
+        <v>2.82078</v>
       </c>
       <c r="B96" t="n">
-        <v>7.98324</v>
+        <v>3.69459</v>
       </c>
       <c r="C96" t="n">
-        <v>7983.24</v>
+        <v>3694.59</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="n">
-        <v>2.83668</v>
+        <v>2.85204</v>
       </c>
       <c r="B97" t="n">
-        <v>7.95392</v>
+        <v>3.64301</v>
       </c>
       <c r="C97" t="n">
-        <v>7953.92</v>
+        <v>3643.01</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="n">
-        <v>2.8657</v>
+        <v>2.88227</v>
       </c>
       <c r="B98" t="n">
-        <v>7.92295</v>
+        <v>3.59211</v>
       </c>
       <c r="C98" t="n">
-        <v>7922.95</v>
+        <v>3592.11</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="n">
-        <v>2.89471</v>
+        <v>2.91213</v>
       </c>
       <c r="B99" t="n">
-        <v>7.89024</v>
+        <v>3.54215</v>
       </c>
       <c r="C99" t="n">
-        <v>7890.24</v>
+        <v>3542.15</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="n">
-        <v>2.92372</v>
+        <v>2.94067</v>
       </c>
       <c r="B100" t="n">
-        <v>7.8557</v>
+        <v>3.49302</v>
       </c>
       <c r="C100" t="n">
-        <v>7855.7</v>
+        <v>3493.02</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="n">
-        <v>2.95274</v>
+        <v>2.97133</v>
       </c>
       <c r="B101" t="n">
-        <v>7.819380000000001</v>
+        <v>3.44099</v>
       </c>
       <c r="C101" t="n">
-        <v>7819.38</v>
+        <v>3440.99</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="n">
-        <v>2.9832</v>
+        <v>3.00218</v>
       </c>
       <c r="B102" t="n">
-        <v>7.779380000000001</v>
+        <v>3.38789</v>
       </c>
       <c r="C102" t="n">
-        <v>7779.38</v>
+        <v>3387.89</v>
       </c>
     </row>
   </sheetData>

--- a/SOO_results/DP1000_room_Swift_NDBR50_curve2/iteration/14/FD_Curve.xlsx
+++ b/SOO_results/DP1000_room_Swift_NDBR50_curve2/iteration/14/FD_Curve.xlsx
@@ -488,1077 +488,1077 @@
         <v>0.0899964</v>
       </c>
       <c r="B5" t="n">
-        <v>3.17591</v>
+        <v>3.31913</v>
       </c>
       <c r="C5" t="n">
-        <v>3175.91</v>
+        <v>3319.13</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>0.119974</v>
+        <v>0.120005</v>
       </c>
       <c r="B6" t="n">
-        <v>3.51748</v>
+        <v>4.25807</v>
       </c>
       <c r="C6" t="n">
-        <v>3517.48</v>
+        <v>4258.07</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>0.149956</v>
+        <v>0.150013</v>
       </c>
       <c r="B7" t="n">
-        <v>3.79903</v>
+        <v>5.16345</v>
       </c>
       <c r="C7" t="n">
-        <v>3799.03</v>
+        <v>5163.45</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>0.179908</v>
+        <v>0.179965</v>
       </c>
       <c r="B8" t="n">
-        <v>3.95998</v>
+        <v>5.56088</v>
       </c>
       <c r="C8" t="n">
-        <v>3959.98</v>
+        <v>5560.88</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>0.20986</v>
+        <v>0.209917</v>
       </c>
       <c r="B9" t="n">
-        <v>4.07965</v>
+        <v>5.968439999999999</v>
       </c>
       <c r="C9" t="n">
-        <v>4079.65</v>
+        <v>5968.44</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>0.239813</v>
+        <v>0.23987</v>
       </c>
       <c r="B10" t="n">
-        <v>4.170439999999999</v>
+        <v>6.267</v>
       </c>
       <c r="C10" t="n">
-        <v>4170.44</v>
+        <v>6267</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>0.269799</v>
+        <v>0.269787</v>
       </c>
       <c r="B11" t="n">
-        <v>4.24911</v>
+        <v>6.520729999999999</v>
       </c>
       <c r="C11" t="n">
-        <v>4249.11</v>
+        <v>6520.73</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>0.299803</v>
+        <v>0.299688</v>
       </c>
       <c r="B12" t="n">
-        <v>4.31053</v>
+        <v>6.68543</v>
       </c>
       <c r="C12" t="n">
-        <v>4310.53</v>
+        <v>6685.43</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>0.329806</v>
+        <v>0.329585</v>
       </c>
       <c r="B13" t="n">
-        <v>4.358989999999999</v>
+        <v>6.84199</v>
       </c>
       <c r="C13" t="n">
-        <v>4358.99</v>
+        <v>6841.99</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>0.35981</v>
+        <v>0.359486</v>
       </c>
       <c r="B14" t="n">
-        <v>4.40432</v>
+        <v>6.96713</v>
       </c>
       <c r="C14" t="n">
-        <v>4404.32</v>
+        <v>6967.13</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>0.389729</v>
+        <v>0.389387</v>
       </c>
       <c r="B15" t="n">
-        <v>4.44494</v>
+        <v>7.08284</v>
       </c>
       <c r="C15" t="n">
-        <v>4444.94</v>
+        <v>7082.84</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>0.41963</v>
+        <v>0.419288</v>
       </c>
       <c r="B16" t="n">
-        <v>4.48176</v>
+        <v>7.19139</v>
       </c>
       <c r="C16" t="n">
-        <v>4481.76</v>
+        <v>7191.39</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>0.449531</v>
+        <v>0.449189</v>
       </c>
       <c r="B17" t="n">
-        <v>4.51446</v>
+        <v>7.27295</v>
       </c>
       <c r="C17" t="n">
-        <v>4514.46</v>
+        <v>7272.95</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>0.479432</v>
+        <v>0.47909</v>
       </c>
       <c r="B18" t="n">
-        <v>4.54115</v>
+        <v>7.36011</v>
       </c>
       <c r="C18" t="n">
-        <v>4541.15</v>
+        <v>7360.11</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>0.509333</v>
+        <v>0.508991</v>
       </c>
       <c r="B19" t="n">
-        <v>4.56662</v>
+        <v>7.42532</v>
       </c>
       <c r="C19" t="n">
-        <v>4566.62</v>
+        <v>7425.32</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>0.539234</v>
+        <v>0.538892</v>
       </c>
       <c r="B20" t="n">
-        <v>4.59158</v>
+        <v>7.49348</v>
       </c>
       <c r="C20" t="n">
-        <v>4591.58</v>
+        <v>7493.48</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>0.5691349999999999</v>
+        <v>0.568793</v>
       </c>
       <c r="B21" t="n">
-        <v>4.6113</v>
+        <v>7.55876</v>
       </c>
       <c r="C21" t="n">
-        <v>4611.3</v>
+        <v>7558.76</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>0.599149</v>
+        <v>0.598807</v>
       </c>
       <c r="B22" t="n">
-        <v>4.63222</v>
+        <v>7.61519</v>
       </c>
       <c r="C22" t="n">
-        <v>4632.22</v>
+        <v>7615.19</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>0.62929</v>
+        <v>0.628948</v>
       </c>
       <c r="B23" t="n">
-        <v>4.64906</v>
+        <v>7.66683</v>
       </c>
       <c r="C23" t="n">
-        <v>4649.06</v>
+        <v>7666.83</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>0.659434</v>
+        <v>0.659092</v>
       </c>
       <c r="B24" t="n">
-        <v>4.66626</v>
+        <v>7.71553</v>
       </c>
       <c r="C24" t="n">
-        <v>4666.26</v>
+        <v>7715.53</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>0.689575</v>
+        <v>0.689233</v>
       </c>
       <c r="B25" t="n">
-        <v>4.68099</v>
+        <v>7.76121</v>
       </c>
       <c r="C25" t="n">
-        <v>4680.99</v>
+        <v>7761.21</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>0.719719</v>
+        <v>0.719373</v>
       </c>
       <c r="B26" t="n">
-        <v>4.69442</v>
+        <v>7.803920000000001</v>
       </c>
       <c r="C26" t="n">
-        <v>4694.42</v>
+        <v>7803.92</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>0.74986</v>
+        <v>0.749518</v>
       </c>
       <c r="B27" t="n">
-        <v>4.70751</v>
+        <v>7.84323</v>
       </c>
       <c r="C27" t="n">
-        <v>4707.51</v>
+        <v>7843.23</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>0.78</v>
+        <v>0.779658</v>
       </c>
       <c r="B28" t="n">
-        <v>4.71896</v>
+        <v>7.87913</v>
       </c>
       <c r="C28" t="n">
-        <v>4718.96</v>
+        <v>7879.13</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>0.810145</v>
+        <v>0.8098030000000001</v>
       </c>
       <c r="B29" t="n">
-        <v>4.72926</v>
+        <v>7.912710000000001</v>
       </c>
       <c r="C29" t="n">
-        <v>4729.26</v>
+        <v>7912.71</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>0.8402849999999999</v>
+        <v>0.839943</v>
       </c>
       <c r="B30" t="n">
-        <v>4.73895</v>
+        <v>7.94599</v>
       </c>
       <c r="C30" t="n">
-        <v>4738.95</v>
+        <v>7945.99</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>0.870425</v>
+        <v>0.8700830000000001</v>
       </c>
       <c r="B31" t="n">
-        <v>4.74782</v>
+        <v>7.977810000000001</v>
       </c>
       <c r="C31" t="n">
-        <v>4747.82</v>
+        <v>7977.81</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>0.90057</v>
+        <v>0.900228</v>
       </c>
       <c r="B32" t="n">
-        <v>4.75573</v>
+        <v>8.00569</v>
       </c>
       <c r="C32" t="n">
-        <v>4755.73</v>
+        <v>8005.69</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>0.930711</v>
+        <v>0.930368</v>
       </c>
       <c r="B33" t="n">
-        <v>4.762770000000001</v>
+        <v>8.032770000000001</v>
       </c>
       <c r="C33" t="n">
-        <v>4762.77</v>
+        <v>8032.77</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>0.960851</v>
+        <v>0.9605089999999999</v>
       </c>
       <c r="B34" t="n">
-        <v>4.76907</v>
+        <v>8.05922</v>
       </c>
       <c r="C34" t="n">
-        <v>4769.07</v>
+        <v>8059.22</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>0.990996</v>
+        <v>0.990654</v>
       </c>
       <c r="B35" t="n">
-        <v>4.77471</v>
+        <v>8.08225</v>
       </c>
       <c r="C35" t="n">
-        <v>4774.71</v>
+        <v>8082.25</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>1.02114</v>
+        <v>1.02079</v>
       </c>
       <c r="B36" t="n">
-        <v>4.7797</v>
+        <v>8.1058</v>
       </c>
       <c r="C36" t="n">
-        <v>4779.7</v>
+        <v>8105.8</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>1.05128</v>
+        <v>1.05093</v>
       </c>
       <c r="B37" t="n">
-        <v>4.78403</v>
+        <v>8.126479999999999</v>
       </c>
       <c r="C37" t="n">
-        <v>4784.03</v>
+        <v>8126.48</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>1.08142</v>
+        <v>1.08108</v>
       </c>
       <c r="B38" t="n">
-        <v>4.78773</v>
+        <v>8.147180000000001</v>
       </c>
       <c r="C38" t="n">
-        <v>4787.73</v>
+        <v>8147.18</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>1.11156</v>
+        <v>1.11122</v>
       </c>
       <c r="B39" t="n">
-        <v>4.79077</v>
+        <v>8.16549</v>
       </c>
       <c r="C39" t="n">
-        <v>4790.77</v>
+        <v>8165.49</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>1.14171</v>
+        <v>1.14136</v>
       </c>
       <c r="B40" t="n">
-        <v>4.7932</v>
+        <v>8.18393</v>
       </c>
       <c r="C40" t="n">
-        <v>4793.2</v>
+        <v>8183.93</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>1.17145</v>
+        <v>1.1715</v>
       </c>
       <c r="B41" t="n">
-        <v>4.795050000000001</v>
+        <v>8.20002</v>
       </c>
       <c r="C41" t="n">
-        <v>4795.05</v>
+        <v>8200.02</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>1.20118</v>
+        <v>1.20164</v>
       </c>
       <c r="B42" t="n">
-        <v>4.79631</v>
+        <v>8.21622</v>
       </c>
       <c r="C42" t="n">
-        <v>4796.31</v>
+        <v>8216.219999999999</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>1.23091</v>
+        <v>1.23179</v>
       </c>
       <c r="B43" t="n">
-        <v>4.79696</v>
+        <v>8.23063</v>
       </c>
       <c r="C43" t="n">
-        <v>4796.96</v>
+        <v>8230.629999999999</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>1.26064</v>
+        <v>1.26193</v>
       </c>
       <c r="B44" t="n">
-        <v>4.79696</v>
+        <v>8.244290000000001</v>
       </c>
       <c r="C44" t="n">
-        <v>4796.96</v>
+        <v>8244.290000000001</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>1.29037</v>
+        <v>1.29207</v>
       </c>
       <c r="B45" t="n">
-        <v>4.79643</v>
+        <v>8.25733</v>
       </c>
       <c r="C45" t="n">
-        <v>4796.43</v>
+        <v>8257.33</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>1.3201</v>
+        <v>1.32221</v>
       </c>
       <c r="B46" t="n">
-        <v>4.79533</v>
+        <v>8.268990000000001</v>
       </c>
       <c r="C46" t="n">
-        <v>4795.33</v>
+        <v>8268.99</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>1.34983</v>
+        <v>1.35236</v>
       </c>
       <c r="B47" t="n">
-        <v>4.79372</v>
+        <v>8.280049999999999</v>
       </c>
       <c r="C47" t="n">
-        <v>4793.72</v>
+        <v>8280.049999999999</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>1.37956</v>
+        <v>1.3825</v>
       </c>
       <c r="B48" t="n">
-        <v>4.79153</v>
+        <v>8.290469999999999</v>
       </c>
       <c r="C48" t="n">
-        <v>4791.53</v>
+        <v>8290.469999999999</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>1.40929</v>
+        <v>1.41264</v>
       </c>
       <c r="B49" t="n">
-        <v>4.78884</v>
+        <v>8.29973</v>
       </c>
       <c r="C49" t="n">
-        <v>4788.84</v>
+        <v>8299.73</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>1.43901</v>
+        <v>1.44278</v>
       </c>
       <c r="B50" t="n">
-        <v>4.78559</v>
+        <v>8.308209999999999</v>
       </c>
       <c r="C50" t="n">
-        <v>4785.59</v>
+        <v>8308.209999999999</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>1.46874</v>
+        <v>1.47257</v>
       </c>
       <c r="B51" t="n">
-        <v>4.78182</v>
+        <v>8.316079999999999</v>
       </c>
       <c r="C51" t="n">
-        <v>4781.82</v>
+        <v>8316.08</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>1.49847</v>
+        <v>1.5023</v>
       </c>
       <c r="B52" t="n">
-        <v>4.777520000000001</v>
+        <v>8.323170000000001</v>
       </c>
       <c r="C52" t="n">
-        <v>4777.52</v>
+        <v>8323.17</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>1.5282</v>
+        <v>1.53203</v>
       </c>
       <c r="B53" t="n">
-        <v>4.772699999999999</v>
+        <v>8.329409999999999</v>
       </c>
       <c r="C53" t="n">
-        <v>4772.7</v>
+        <v>8329.41</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>1.55821</v>
+        <v>1.56176</v>
       </c>
       <c r="B54" t="n">
-        <v>4.76722</v>
+        <v>8.33488</v>
       </c>
       <c r="C54" t="n">
-        <v>4767.22</v>
+        <v>8334.879999999999</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>1.5885</v>
+        <v>1.59149</v>
       </c>
       <c r="B55" t="n">
-        <v>4.76107</v>
+        <v>8.339680000000001</v>
       </c>
       <c r="C55" t="n">
-        <v>4761.07</v>
+        <v>8339.68</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>1.61879</v>
+        <v>1.62122</v>
       </c>
       <c r="B56" t="n">
-        <v>4.754</v>
+        <v>8.34381</v>
       </c>
       <c r="C56" t="n">
-        <v>4754</v>
+        <v>8343.809999999999</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>1.64909</v>
+        <v>1.65109</v>
       </c>
       <c r="B57" t="n">
-        <v>4.7462</v>
+        <v>8.34727</v>
       </c>
       <c r="C57" t="n">
-        <v>4746.2</v>
+        <v>8347.27</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
-        <v>1.67938</v>
+        <v>1.68138</v>
       </c>
       <c r="B58" t="n">
-        <v>4.73793</v>
+        <v>8.35005</v>
       </c>
       <c r="C58" t="n">
-        <v>4737.93</v>
+        <v>8350.049999999999</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
-        <v>1.70967</v>
+        <v>1.71167</v>
       </c>
       <c r="B59" t="n">
-        <v>4.72906</v>
+        <v>8.35206</v>
       </c>
       <c r="C59" t="n">
-        <v>4729.06</v>
+        <v>8352.059999999999</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
-        <v>1.73997</v>
+        <v>1.74197</v>
       </c>
       <c r="B60" t="n">
-        <v>4.71957</v>
+        <v>8.353299999999999</v>
       </c>
       <c r="C60" t="n">
-        <v>4719.57</v>
+        <v>8353.299999999999</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="n">
-        <v>1.77026</v>
+        <v>1.77226</v>
       </c>
       <c r="B61" t="n">
-        <v>4.70944</v>
+        <v>8.353809999999999</v>
       </c>
       <c r="C61" t="n">
-        <v>4709.44</v>
+        <v>8353.809999999999</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="n">
-        <v>1.80055</v>
+        <v>1.80248</v>
       </c>
       <c r="B62" t="n">
-        <v>4.69862</v>
+        <v>8.35355</v>
       </c>
       <c r="C62" t="n">
-        <v>4698.62</v>
+        <v>8353.549999999999</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="n">
-        <v>1.83084</v>
+        <v>1.83235</v>
       </c>
       <c r="B63" t="n">
-        <v>4.68708</v>
+        <v>8.35242</v>
       </c>
       <c r="C63" t="n">
-        <v>4687.08</v>
+        <v>8352.42</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="n">
-        <v>1.86114</v>
+        <v>1.86222</v>
       </c>
       <c r="B64" t="n">
-        <v>4.674810000000001</v>
+        <v>8.3505</v>
       </c>
       <c r="C64" t="n">
-        <v>4674.81</v>
+        <v>8350.5</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="n">
-        <v>1.89143</v>
+        <v>1.89208</v>
       </c>
       <c r="B65" t="n">
-        <v>4.66162</v>
+        <v>8.347809999999999</v>
       </c>
       <c r="C65" t="n">
-        <v>4661.62</v>
+        <v>8347.809999999999</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="n">
-        <v>1.92172</v>
+        <v>1.92195</v>
       </c>
       <c r="B66" t="n">
-        <v>4.64752</v>
+        <v>8.344379999999999</v>
       </c>
       <c r="C66" t="n">
-        <v>4647.52</v>
+        <v>8344.379999999999</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="n">
-        <v>1.95202</v>
+        <v>1.95182</v>
       </c>
       <c r="B67" t="n">
-        <v>4.63249</v>
+        <v>8.34018</v>
       </c>
       <c r="C67" t="n">
-        <v>4632.49</v>
+        <v>8340.18</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="n">
-        <v>1.98231</v>
+        <v>1.98169</v>
       </c>
       <c r="B68" t="n">
-        <v>4.6166</v>
+        <v>8.33521</v>
       </c>
       <c r="C68" t="n">
-        <v>4616.6</v>
+        <v>8335.209999999999</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="n">
-        <v>2.01258</v>
+        <v>2.01155</v>
       </c>
       <c r="B69" t="n">
-        <v>4.599810000000001</v>
+        <v>8.329450000000001</v>
       </c>
       <c r="C69" t="n">
-        <v>4599.81</v>
+        <v>8329.450000000001</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="n">
-        <v>2.04245</v>
+        <v>2.04142</v>
       </c>
       <c r="B70" t="n">
-        <v>4.582020000000001</v>
+        <v>8.322930000000001</v>
       </c>
       <c r="C70" t="n">
-        <v>4582.02</v>
+        <v>8322.93</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="n">
-        <v>2.07232</v>
+        <v>2.07129</v>
       </c>
       <c r="B71" t="n">
-        <v>4.56333</v>
+        <v>8.3156</v>
       </c>
       <c r="C71" t="n">
-        <v>4563.33</v>
+        <v>8315.6</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="n">
-        <v>2.10218</v>
+        <v>2.10115</v>
       </c>
       <c r="B72" t="n">
-        <v>4.54357</v>
+        <v>8.30748</v>
       </c>
       <c r="C72" t="n">
-        <v>4543.57</v>
+        <v>8307.48</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="n">
-        <v>2.13205</v>
+        <v>2.13102</v>
       </c>
       <c r="B73" t="n">
-        <v>4.522699999999999</v>
+        <v>8.298549999999999</v>
       </c>
       <c r="C73" t="n">
-        <v>4522.7</v>
+        <v>8298.549999999999</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="n">
-        <v>2.16192</v>
+        <v>2.16089</v>
       </c>
       <c r="B74" t="n">
-        <v>4.50075</v>
+        <v>8.288740000000001</v>
       </c>
       <c r="C74" t="n">
-        <v>4500.75</v>
+        <v>8288.74</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="n">
-        <v>2.19178</v>
+        <v>2.19075</v>
       </c>
       <c r="B75" t="n">
-        <v>4.4777</v>
+        <v>8.2781</v>
       </c>
       <c r="C75" t="n">
-        <v>4477.7</v>
+        <v>8278.1</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="n">
-        <v>2.22165</v>
+        <v>2.22062</v>
       </c>
       <c r="B76" t="n">
-        <v>4.45375</v>
+        <v>8.26614</v>
       </c>
       <c r="C76" t="n">
-        <v>4453.75</v>
+        <v>8266.139999999999</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="n">
-        <v>2.25177</v>
+        <v>2.25048</v>
       </c>
       <c r="B77" t="n">
-        <v>4.42809</v>
+        <v>8.25301</v>
       </c>
       <c r="C77" t="n">
-        <v>4428.09</v>
+        <v>8253.01</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="n">
-        <v>2.28168</v>
+        <v>2.28035</v>
       </c>
       <c r="B78" t="n">
-        <v>4.40161</v>
+        <v>8.239139999999999</v>
       </c>
       <c r="C78" t="n">
-        <v>4401.61</v>
+        <v>8239.139999999999</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="n">
-        <v>2.3118</v>
+        <v>2.31022</v>
       </c>
       <c r="B79" t="n">
-        <v>4.37342</v>
+        <v>8.22439</v>
       </c>
       <c r="C79" t="n">
-        <v>4373.42</v>
+        <v>8224.389999999999</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="n">
-        <v>2.34155</v>
+        <v>2.34008</v>
       </c>
       <c r="B80" t="n">
-        <v>4.34436</v>
+        <v>8.20866</v>
       </c>
       <c r="C80" t="n">
-        <v>4344.36</v>
+        <v>8208.66</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="n">
-        <v>2.37103</v>
+        <v>2.36995</v>
       </c>
       <c r="B81" t="n">
-        <v>4.314319999999999</v>
+        <v>8.19183</v>
       </c>
       <c r="C81" t="n">
-        <v>4314.32</v>
+        <v>8191.83</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="n">
-        <v>2.40172</v>
+        <v>2.39982</v>
       </c>
       <c r="B82" t="n">
-        <v>4.281359999999999</v>
+        <v>8.17404</v>
       </c>
       <c r="C82" t="n">
-        <v>4281.36</v>
+        <v>8174.04</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="n">
-        <v>2.43188</v>
+        <v>2.42968</v>
       </c>
       <c r="B83" t="n">
-        <v>4.24775</v>
+        <v>8.15508</v>
       </c>
       <c r="C83" t="n">
-        <v>4247.75</v>
+        <v>8155.08</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="n">
-        <v>2.46141</v>
+        <v>2.45955</v>
       </c>
       <c r="B84" t="n">
-        <v>4.21351</v>
+        <v>8.134869999999999</v>
       </c>
       <c r="C84" t="n">
-        <v>4213.51</v>
+        <v>8134.87</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="n">
-        <v>2.49143</v>
+        <v>2.48942</v>
       </c>
       <c r="B85" t="n">
-        <v>4.17694</v>
+        <v>8.11313</v>
       </c>
       <c r="C85" t="n">
-        <v>4176.94</v>
+        <v>8113.13</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="n">
-        <v>2.52198</v>
+        <v>2.51929</v>
       </c>
       <c r="B86" t="n">
-        <v>4.13851</v>
+        <v>8.089920000000001</v>
       </c>
       <c r="C86" t="n">
-        <v>4138.51</v>
+        <v>8089.92</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="n">
-        <v>2.55185</v>
+        <v>2.54915</v>
       </c>
       <c r="B87" t="n">
-        <v>4.09953</v>
+        <v>8.065250000000001</v>
       </c>
       <c r="C87" t="n">
-        <v>4099.53</v>
+        <v>8065.25</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="n">
-        <v>2.5809</v>
+        <v>2.57902</v>
       </c>
       <c r="B88" t="n">
-        <v>4.06004</v>
+        <v>8.039060000000001</v>
       </c>
       <c r="C88" t="n">
-        <v>4060.04</v>
+        <v>8039.06</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="n">
-        <v>2.61177</v>
+        <v>2.60889</v>
       </c>
       <c r="B89" t="n">
-        <v>4.01707</v>
+        <v>8.01136</v>
       </c>
       <c r="C89" t="n">
-        <v>4017.07</v>
+        <v>8011.36</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="n">
-        <v>2.64203</v>
+        <v>2.63875</v>
       </c>
       <c r="B90" t="n">
-        <v>3.97333</v>
+        <v>7.98204</v>
       </c>
       <c r="C90" t="n">
-        <v>3973.33</v>
+        <v>7982.04</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="n">
-        <v>2.67168</v>
+        <v>2.66862</v>
       </c>
       <c r="B91" t="n">
-        <v>3.92945</v>
+        <v>7.95108</v>
       </c>
       <c r="C91" t="n">
-        <v>3929.45</v>
+        <v>7951.08</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="n">
-        <v>2.70077</v>
+        <v>2.69849</v>
       </c>
       <c r="B92" t="n">
-        <v>3.8855</v>
+        <v>7.91833</v>
       </c>
       <c r="C92" t="n">
-        <v>3885.5</v>
+        <v>7918.33</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="n">
-        <v>2.73166</v>
+        <v>2.72835</v>
       </c>
       <c r="B93" t="n">
-        <v>3.83749</v>
+        <v>7.88369</v>
       </c>
       <c r="C93" t="n">
-        <v>3837.49</v>
+        <v>7883.69</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="n">
-        <v>2.76231</v>
+        <v>2.75784</v>
       </c>
       <c r="B94" t="n">
-        <v>3.78951</v>
+        <v>7.84717</v>
       </c>
       <c r="C94" t="n">
-        <v>3789.51</v>
+        <v>7847.17</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="n">
-        <v>2.79175</v>
+        <v>2.78685</v>
       </c>
       <c r="B95" t="n">
-        <v>3.74181</v>
+        <v>7.80891</v>
       </c>
       <c r="C95" t="n">
-        <v>3741.81</v>
+        <v>7808.91</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="n">
-        <v>2.82078</v>
+        <v>2.81715</v>
       </c>
       <c r="B96" t="n">
-        <v>3.69459</v>
+        <v>7.76723</v>
       </c>
       <c r="C96" t="n">
-        <v>3694.59</v>
+        <v>7767.23</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="n">
-        <v>2.85204</v>
+        <v>2.8476</v>
       </c>
       <c r="B97" t="n">
-        <v>3.64301</v>
+        <v>7.72275</v>
       </c>
       <c r="C97" t="n">
-        <v>3643.01</v>
+        <v>7722.75</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="n">
-        <v>2.88227</v>
+        <v>2.87777</v>
       </c>
       <c r="B98" t="n">
-        <v>3.59211</v>
+        <v>7.67672</v>
       </c>
       <c r="C98" t="n">
-        <v>3592.11</v>
+        <v>7676.72</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="n">
-        <v>2.91213</v>
+        <v>2.90704</v>
       </c>
       <c r="B99" t="n">
-        <v>3.54215</v>
+        <v>7.62905</v>
       </c>
       <c r="C99" t="n">
-        <v>3542.15</v>
+        <v>7629.05</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="n">
-        <v>2.94067</v>
+        <v>2.93709</v>
       </c>
       <c r="B100" t="n">
-        <v>3.49302</v>
+        <v>7.57799</v>
       </c>
       <c r="C100" t="n">
-        <v>3493.02</v>
+        <v>7577.99</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="n">
-        <v>2.97133</v>
+        <v>2.96761</v>
       </c>
       <c r="B101" t="n">
-        <v>3.44099</v>
+        <v>7.52334</v>
       </c>
       <c r="C101" t="n">
-        <v>3440.99</v>
+        <v>7523.34</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="n">
-        <v>3.00218</v>
+        <v>2.9973</v>
       </c>
       <c r="B102" t="n">
-        <v>3.38789</v>
+        <v>7.46723</v>
       </c>
       <c r="C102" t="n">
-        <v>3387.89</v>
+        <v>7467.23</v>
       </c>
     </row>
   </sheetData>
